--- a/data2.xlsx
+++ b/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96539B4-BE3A-4A92-881B-B9142E178102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39226E-5C10-40D6-AD5F-7C93F7F5115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -383,9 +381,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -393,7 +388,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -701,30 +695,30 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -732,182 +726,182 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.1</v>
+      <c r="B2" s="4">
+        <v>-2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.1</v>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.6</v>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.4</v>
+      <c r="B5" s="4">
+        <v>-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.2</v>
+      <c r="B6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.4</v>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.2</v>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.4</v>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.2</v>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.5</v>
+      <c r="B11" s="8">
+        <v>-4</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.2</v>
+      <c r="B12" s="8">
+        <v>-4</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.5</v>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.2</v>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -930,10 +924,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="3" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="7"/>
+    <col min="5" max="6" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,7 +940,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -964,7 +958,7 @@
       <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -972,10 +966,10 @@
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="1"/>
@@ -984,10 +978,10 @@
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="1"/>
@@ -997,10 +991,10 @@
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1012,7 +1006,7 @@
       <c r="C6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1020,10 +1014,10 @@
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="1"/>
@@ -1032,10 +1026,10 @@
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="1"/>
@@ -1045,10 +1039,10 @@
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1060,7 +1054,7 @@
       <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1071,7 +1065,7 @@
       <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="1"/>
@@ -1080,10 +1074,10 @@
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="1"/>
@@ -1093,10 +1087,10 @@
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1105,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1119,7 +1113,7 @@
       <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="1"/>
@@ -1128,10 +1122,10 @@
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="1"/>
@@ -1141,32 +1135,32 @@
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1174,10 +1168,10 @@
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1185,10 +1179,10 @@
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1196,10 +1190,10 @@
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1207,10 +1201,10 @@
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1218,10 +1212,10 @@
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1229,10 +1223,10 @@
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1240,10 +1234,10 @@
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1251,10 +1245,10 @@
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1262,10 +1256,10 @@
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1273,10 +1267,10 @@
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1284,10 +1278,10 @@
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1295,10 +1289,10 @@
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1306,10 +1300,10 @@
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1317,10 +1311,10 @@
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1328,10 +1322,10 @@
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1339,10 +1333,10 @@
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1350,10 +1344,10 @@
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1361,10 +1355,10 @@
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1372,10 +1366,10 @@
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1383,10 +1377,10 @@
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1394,10 +1388,10 @@
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1405,10 +1399,10 @@
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1416,10 +1410,10 @@
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1427,10 +1421,10 @@
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1438,10 +1432,10 @@
       <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1449,10 +1443,10 @@
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1460,10 +1454,10 @@
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1471,10 +1465,10 @@
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1482,10 +1476,10 @@
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1493,10 +1487,10 @@
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1504,10 +1498,10 @@
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1515,10 +1509,10 @@
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1526,10 +1520,10 @@
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1537,10 +1531,10 @@
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1548,10 +1542,10 @@
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1559,10 +1553,10 @@
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1570,10 +1564,10 @@
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1581,10 +1575,10 @@
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1592,10 +1586,10 @@
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1603,10 +1597,10 @@
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1630,10 +1624,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1646,7 +1640,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1660,51 +1654,37 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1714,7 +1694,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1768,13 +1748,13 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>20</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <f>C2 + 2</f>
         <v>22</v>
       </c>
@@ -1789,7 +1769,7 @@
       <c r="C3">
         <v>34</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D45" si="0">C3 + 2</f>
         <v>36</v>
       </c>
@@ -1804,7 +1784,7 @@
       <c r="C4">
         <v>45</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -1819,7 +1799,7 @@
       <c r="C5">
         <v>55</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -1834,7 +1814,7 @@
       <c r="C6">
         <v>61</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -1849,7 +1829,7 @@
       <c r="C7">
         <v>64</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -1864,7 +1844,7 @@
       <c r="C8">
         <v>68</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -1879,7 +1859,7 @@
       <c r="C9">
         <v>71</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
@@ -1894,7 +1874,7 @@
       <c r="C10">
         <v>75</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
@@ -1909,7 +1889,7 @@
       <c r="C11">
         <v>78</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -1924,7 +1904,7 @@
       <c r="C12">
         <v>81</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
@@ -1939,7 +1919,7 @@
       <c r="C13">
         <v>85</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -1954,7 +1934,7 @@
       <c r="C14">
         <v>88</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -1969,7 +1949,7 @@
       <c r="C15">
         <v>92</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
@@ -1984,7 +1964,7 @@
       <c r="C16">
         <v>95</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
@@ -1999,7 +1979,7 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2014,7 +1994,7 @@
       <c r="C18">
         <v>34</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -2029,7 +2009,7 @@
       <c r="C19">
         <v>45</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -2044,7 +2024,7 @@
       <c r="C20">
         <v>55</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -2059,7 +2039,7 @@
       <c r="C21">
         <v>63</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -2074,7 +2054,7 @@
       <c r="C22">
         <v>74</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
@@ -2089,7 +2069,7 @@
       <c r="C23">
         <v>82</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
@@ -2104,7 +2084,7 @@
       <c r="C24">
         <v>88</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -2119,7 +2099,7 @@
       <c r="C25">
         <v>94</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -2134,7 +2114,7 @@
       <c r="C26">
         <v>100</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -2149,7 +2129,7 @@
       <c r="C27">
         <v>105</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -2164,7 +2144,7 @@
       <c r="C28">
         <v>111</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
@@ -2179,7 +2159,7 @@
       <c r="C29">
         <v>117</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -2194,7 +2174,7 @@
       <c r="C30">
         <v>122</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
@@ -2209,7 +2189,7 @@
       <c r="C31">
         <v>128</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
@@ -2218,13 +2198,13 @@
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>20</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>20</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2239,7 +2219,7 @@
       <c r="C33">
         <v>40</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2254,7 +2234,7 @@
       <c r="C34">
         <v>50</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
@@ -2269,7 +2249,7 @@
       <c r="C35">
         <v>59</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -2284,7 +2264,7 @@
       <c r="C36">
         <v>68</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -2299,7 +2279,7 @@
       <c r="C37">
         <v>77</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="6">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
@@ -2314,7 +2294,7 @@
       <c r="C38">
         <v>85</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="6">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -2329,7 +2309,7 @@
       <c r="C39">
         <v>92</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="6">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
@@ -2344,7 +2324,7 @@
       <c r="C40">
         <v>98</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2359,7 +2339,7 @@
       <c r="C41">
         <v>105</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="6">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -2374,7 +2354,7 @@
       <c r="C42">
         <v>112</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="6">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -2389,7 +2369,7 @@
       <c r="C43">
         <v>118</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -2404,7 +2384,7 @@
       <c r="C44">
         <v>123</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="6">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
@@ -2419,7 +2399,7 @@
       <c r="C45">
         <v>128</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
@@ -2428,13 +2408,13 @@
       <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="6">
         <v>10</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="6">
         <v>20</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2442,13 +2422,13 @@
       <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="6">
         <v>10</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="6">
         <v>20</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2456,13 +2436,13 @@
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="6">
         <v>10</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <v>20</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2470,13 +2450,13 @@
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="6">
         <v>10</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="6">
         <v>20</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2484,13 +2464,13 @@
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <v>10</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="6">
         <v>20</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="6">
         <v>30</v>
       </c>
     </row>
@@ -2498,13 +2478,13 @@
       <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="8">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2519,7 +2499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178C5327-6E4A-4907-8A11-8CF589BF8A11}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/data2.xlsx
+++ b/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD39226E-5C10-40D6-AD5F-7C93F7F5115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAA17B0-121B-4EDC-8351-CC669974D098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>From</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>WP3</t>
-  </si>
-  <si>
-    <t>WP3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -304,9 +301,30 @@
   </si>
   <si>
     <t>BIN4</t>
-  </si>
-  <si>
-    <t>BIN4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP1_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP2_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP3_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP4_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP5_TOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WP6_TOP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -693,10 +711,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,13 +745,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="4">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,13 +759,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,13 +787,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="4">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,18 +801,18 @@
         <v>69</v>
       </c>
       <c r="B6" s="4">
-        <v>-2</v>
+        <v>-20</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -803,12 +821,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -817,91 +835,175 @@
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B17" s="8">
+        <v>-40</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="8">
-        <v>-4</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B18" s="8">
+        <v>-40</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="8">
-        <v>-4</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B19" s="8">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="8">
-        <v>4</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>2</v>
+      <c r="B20" s="8">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +1018,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,12 +1068,6 @@
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,7 +1075,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>65</v>
@@ -991,12 +1087,6 @@
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1014,12 +1104,6 @@
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1111,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>65</v>
@@ -1039,88 +1123,62 @@
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>63</v>
+      </c>
       <c r="C14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>62</v>
+      <c r="A16" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>69</v>
@@ -1128,111 +1186,88 @@
       <c r="D16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>70</v>
@@ -1240,70 +1275,54 @@
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1311,19 +1330,13 @@
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>65</v>
@@ -1333,19 +1346,13 @@
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>65</v>
@@ -1355,19 +1362,13 @@
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>65</v>
@@ -1377,19 +1378,13 @@
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>65</v>
@@ -1399,19 +1394,13 @@
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>65</v>
@@ -1421,12 +1410,6 @@
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1443,19 +1426,13 @@
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>65</v>
@@ -1465,19 +1442,13 @@
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>65</v>
@@ -1485,21 +1456,15 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>65</v>
@@ -1507,21 +1472,15 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>65</v>
@@ -1529,23 +1488,17 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1553,21 +1506,16 @@
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1575,33 +1523,70 @@
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>65</v>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1720,14 +1705,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59CF949-7256-4B60-BD47-05AF650B0ADA}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1755,7 +1741,6 @@
         <v>20</v>
       </c>
       <c r="D2" s="6">
-        <f>C2 + 2</f>
         <v>22</v>
       </c>
     </row>
@@ -1770,7 +1755,6 @@
         <v>34</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D45" si="0">C3 + 2</f>
         <v>36</v>
       </c>
     </row>
@@ -1785,7 +1769,6 @@
         <v>45</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -1800,8 +1783,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>57.000000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,7 +1797,6 @@
         <v>61</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
@@ -1830,7 +1811,6 @@
         <v>64</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -1845,7 +1825,6 @@
         <v>68</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -1860,7 +1839,6 @@
         <v>71</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
@@ -1875,7 +1853,6 @@
         <v>75</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
@@ -1890,7 +1867,6 @@
         <v>78</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1905,7 +1881,6 @@
         <v>81</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="0"/>
         <v>83</v>
       </c>
     </row>
@@ -1920,7 +1895,6 @@
         <v>85</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
@@ -1935,7 +1909,6 @@
         <v>88</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -1950,7 +1923,6 @@
         <v>92</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -1965,7 +1937,6 @@
         <v>95</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="0"/>
         <v>97</v>
       </c>
     </row>
@@ -1980,7 +1951,6 @@
         <v>20</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -1995,7 +1965,6 @@
         <v>34</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2010,7 +1979,6 @@
         <v>45</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
@@ -2025,8 +1993,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>57.000000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,7 +2007,6 @@
         <v>63</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -2055,7 +2021,6 @@
         <v>74</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -2070,7 +2035,6 @@
         <v>82</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
@@ -2085,7 +2049,6 @@
         <v>88</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -2100,7 +2063,6 @@
         <v>94</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
@@ -2115,7 +2077,6 @@
         <v>100</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -2130,7 +2091,6 @@
         <v>105</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
@@ -2145,7 +2105,6 @@
         <v>111</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
@@ -2160,7 +2119,6 @@
         <v>117</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
@@ -2175,7 +2133,6 @@
         <v>122</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="0"/>
         <v>124</v>
       </c>
     </row>
@@ -2190,7 +2147,6 @@
         <v>128</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -2205,7 +2161,6 @@
         <v>20</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -2220,7 +2175,6 @@
         <v>40</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -2235,7 +2189,6 @@
         <v>50</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -2244,13 +2197,12 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>58.999999999999993</v>
       </c>
       <c r="C35">
-        <v>59</v>
+        <v>58.999999999999993</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -2265,7 +2217,6 @@
         <v>68</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
@@ -2280,7 +2231,6 @@
         <v>77</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -2295,7 +2245,6 @@
         <v>85</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
@@ -2310,7 +2259,6 @@
         <v>92</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -2325,7 +2273,6 @@
         <v>98</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2340,7 +2287,6 @@
         <v>105</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="0"/>
         <v>107</v>
       </c>
     </row>
@@ -2349,14 +2295,13 @@
         <v>52</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="C42">
-        <v>112</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="0"/>
-        <v>114</v>
+        <v>114.00000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,14 +2309,13 @@
         <v>53</v>
       </c>
       <c r="B43">
-        <v>118</v>
+        <v>117.99999999999999</v>
       </c>
       <c r="C43">
-        <v>118</v>
+        <v>117.99999999999999</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>119.99999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2379,14 +2323,13 @@
         <v>54</v>
       </c>
       <c r="B44">
-        <v>123</v>
+        <v>123.00000000000001</v>
       </c>
       <c r="C44">
-        <v>123</v>
+        <v>123.00000000000001</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <v>125.00000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,7 +2343,6 @@
         <v>128</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -2415,7 +2357,7 @@
         <v>20</v>
       </c>
       <c r="D46" s="6">
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,7 +2371,7 @@
         <v>20</v>
       </c>
       <c r="D47" s="6">
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="6">
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="6">
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="6">
-        <v>30</v>
+        <v>29.999999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
